--- a/projectWebsite/deliverables/sprint3/BookLibrary-Sprint3_ProjectBacklog.xlsx
+++ b/projectWebsite/deliverables/sprint3/BookLibrary-Sprint3_ProjectBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monicalalor/Desktop/sprint 3 deliverables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f25b5186b135ce9/College/Junior S2/CS 495/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F0CE44-B8E6-DE4E-8F9F-711E3B99C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{C9F0CE44-B8E6-DE4E-8F9F-711E3B99C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{682AA4EA-9DEA-4030-B4C3-7BDAF60F4398}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Filteration system</t>
+  </si>
+  <si>
+    <t>Host API</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +162,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8AC926"/>
-        <bgColor rgb="FF8AC926"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF595E"/>
         <bgColor rgb="FFFF595E"/>
       </patternFill>
@@ -197,6 +194,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFCA3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AD694"/>
+        <bgColor rgb="FFFFCA3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AD694"/>
+        <bgColor rgb="FF8AC926"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,31 +229,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7AD694"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -457,22 +472,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.46484375" customWidth="1"/>
+    <col min="2" max="2" width="56.796875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +504,8 @@
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -510,361 +525,378 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
         <v>45293</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17">
-        <v>3</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
+      <c r="C7" s="13">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="17">
-        <v>2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17">
-        <v>3</v>
-      </c>
-      <c r="D11" s="17">
-        <v>2</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17">
-        <v>2</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13">
         <v>4</v>
       </c>
-      <c r="E13" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="13">
+        <v>5</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C15" s="13">
         <v>4</v>
       </c>
-      <c r="D14" s="17">
-        <v>2</v>
-      </c>
-      <c r="E14" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15">
+      <c r="D15" s="13">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>3</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17">
-        <v>3</v>
-      </c>
-      <c r="D15" s="17">
-        <v>2</v>
-      </c>
-      <c r="E15" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="C19" s="13">
+        <v>5</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+      <c r="E20" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="C16" s="17">
-        <v>2</v>
-      </c>
-      <c r="D16" s="17">
-        <v>3</v>
-      </c>
-      <c r="E16" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="C17" s="17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="B23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="17">
-        <v>3</v>
-      </c>
-      <c r="E18" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="17">
-        <v>2</v>
-      </c>
-      <c r="D19" s="17">
-        <v>3</v>
-      </c>
-      <c r="E19" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="19">
-        <v>2</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
         <v>4</v>
       </c>
-      <c r="E20" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>4</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
-        <v>4</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>25</v>
       </c>
     </row>
